--- a/min_losses.xlsx
+++ b/min_losses.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>((19.0, 29.0, 0.047), 127.80419516107068)</t>
+    <t>(25.0, 16.0, 0.074)</t>
+  </si>
+  <si>
+    <t>1.8249974727630587</t>
   </si>
 </sst>
 </file>
@@ -348,15 +351,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/min_losses.xlsx
+++ b/min_losses.xlsx
@@ -14,12 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>(25.0, 16.0, 0.074)</t>
-  </si>
-  <si>
-    <t>1.8249974727630587</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>(18.0, 15.0, 0.019)</t>
+  </si>
+  <si>
+    <t>0.5436301279813023</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>(19.0, 15.0, 0.019)</t>
+  </si>
+  <si>
+    <t>0.5060433514416189</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>(20.0, 15.0, 0.019)</t>
+  </si>
+  <si>
+    <t>0.3190215567126842</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -351,18 +378,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/min_losses.xlsx
+++ b/min_losses.xlsx
@@ -14,39 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>(18.0, 15.0, 0.019)</t>
-  </si>
-  <si>
-    <t>0.5436301279813023</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>(19.0, 15.0, 0.019)</t>
-  </si>
-  <si>
-    <t>0.5060433514416189</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>(20.0, 15.0, 0.019)</t>
-  </si>
-  <si>
-    <t>0.3190215567126842</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>(26.0, 22.0, 0.073)</t>
+  </si>
+  <si>
+    <t>0.9354915785789473</t>
+  </si>
+  <si>
+    <t>(27.0, 22.0, 0.073)</t>
+  </si>
+  <si>
+    <t>0.5211257791519159</t>
+  </si>
+  <si>
+    <t>(28.0, 22.0, 0.073)</t>
+  </si>
+  <si>
+    <t>0.4357645642757433</t>
   </si>
 </sst>
 </file>
@@ -378,65 +363,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
